--- a/data/trans_bre/PCS12_SP_R3-Clase-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R3-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 11,55</t>
+          <t>0,84; 11,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 8,17</t>
+          <t>-3,53; 7,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 7,11</t>
+          <t>-3,51; 7,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 9,89</t>
+          <t>1,65; 10,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 114,82</t>
+          <t>6,01; 113,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,07; 71,39</t>
+          <t>-24,21; 65,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 63,69</t>
+          <t>-23,42; 63,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,83; 86,43</t>
+          <t>10,5; 89,25</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 8,18</t>
+          <t>-1,21; 8,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 3,77</t>
+          <t>-6,54; 4,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 8,12</t>
+          <t>-2,14; 8,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 8,47</t>
+          <t>-1,5; 8,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,94; 116,62</t>
+          <t>-10,98; 117,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,52; 28,96</t>
+          <t>-36,24; 37,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 93,88</t>
+          <t>-17,27; 89,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 55,89</t>
+          <t>-6,83; 54,07</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 19,58</t>
+          <t>3,59; 18,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 14,04</t>
+          <t>1,1; 15,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 19,32</t>
+          <t>2,75; 19,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-45,06; 17,58</t>
+          <t>-47,73; 17,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,35; 132,77</t>
+          <t>17,58; 132,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 74,64</t>
+          <t>4,0; 74,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,61; 111,1</t>
+          <t>14,16; 115,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-55,42; 71,57</t>
+          <t>-56,75; 74,4</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 5,93</t>
+          <t>-2,0; 5,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 3,58</t>
+          <t>-4,54; 3,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 3,97</t>
+          <t>-3,62; 3,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 1,24</t>
+          <t>-17,35; 1,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 30,04</t>
+          <t>-8,51; 28,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 18,77</t>
+          <t>-19,98; 17,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,16; 22,35</t>
+          <t>-17,14; 21,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,7; 5,07</t>
+          <t>-59,91; 5,23</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 14,07</t>
+          <t>2,45; 13,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,21; 23,91</t>
+          <t>13,41; 24,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 14,83</t>
+          <t>5,24; 14,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 13,26</t>
+          <t>-3,78; 12,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,95; 83,58</t>
+          <t>10,36; 83,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>62,8; 143,6</t>
+          <t>60,34; 146,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,65; 75,95</t>
+          <t>20,93; 73,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 49,91</t>
+          <t>-7,51; 47,87</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,61; 35,23</t>
+          <t>28,71; 35,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28,63; 36,6</t>
+          <t>27,97; 36,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,1; 34,69</t>
+          <t>27,07; 34,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>28,5; 36,25</t>
+          <t>28,63; 36,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>467,46; 1673,27</t>
+          <t>466,44; 1712,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>362,63; 1378,71</t>
+          <t>325,72; 1581,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>553,61; 3747,41</t>
+          <t>501,2; 3366,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>412,71; 1840,9</t>
+          <t>422,96; 1888,3</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,28; 13,35</t>
+          <t>9,49; 13,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,85; 13,08</t>
+          <t>9,25; 13,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,0; 11,22</t>
+          <t>7,41; 11,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 7,98</t>
+          <t>-16,31; 7,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>55,93; 89,66</t>
+          <t>57,02; 88,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>46,24; 76,86</t>
+          <t>49,38; 79,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>38,87; 70,34</t>
+          <t>41,25; 71,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-35,24; 36,89</t>
+          <t>-40,24; 36,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/PCS12_SP_R3-Clase-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R3-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
